--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="H2">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="I2">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="J2">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="N2">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="O2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="P2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="Q2">
-        <v>9.253536659898668</v>
+        <v>9.879196281264445</v>
       </c>
       <c r="R2">
-        <v>83.281829939088</v>
+        <v>88.91276653138</v>
       </c>
       <c r="S2">
-        <v>0.008833655053864835</v>
+        <v>0.007376264685769388</v>
       </c>
       <c r="T2">
-        <v>0.008833655053864835</v>
+        <v>0.007376264685769387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="H3">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="I3">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="J3">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.848049</v>
       </c>
       <c r="O3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="P3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="Q3">
-        <v>1.550221766114667</v>
+        <v>2.235332545636667</v>
       </c>
       <c r="R3">
-        <v>13.951995895032</v>
+        <v>20.11799291073</v>
       </c>
       <c r="S3">
-        <v>0.001479880054746555</v>
+        <v>0.001669002624090021</v>
       </c>
       <c r="T3">
-        <v>0.001479880054746556</v>
+        <v>0.00166900262409002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="H4">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="I4">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="J4">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="N4">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="O4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="P4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="Q4">
-        <v>4.451915975207999</v>
+        <v>14.59968019360889</v>
       </c>
       <c r="R4">
-        <v>40.067243776872</v>
+        <v>131.39712174248</v>
       </c>
       <c r="S4">
-        <v>0.004249909142761034</v>
+        <v>0.01090079621556629</v>
       </c>
       <c r="T4">
-        <v>0.004249909142761034</v>
+        <v>0.01090079621556629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="H5">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="I5">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="J5">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05428633333333333</v>
+        <v>0.2836386666666667</v>
       </c>
       <c r="N5">
-        <v>0.162859</v>
+        <v>0.850916</v>
       </c>
       <c r="O5">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="P5">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="Q5">
-        <v>0.03686707945688888</v>
+        <v>0.2777550552577778</v>
       </c>
       <c r="R5">
-        <v>0.331803715112</v>
+        <v>2.49979549732</v>
       </c>
       <c r="S5">
-        <v>3.519422624399581E-05</v>
+        <v>0.0002073847656288943</v>
       </c>
       <c r="T5">
-        <v>3.519422624399582E-05</v>
+        <v>0.0002073847656288943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="H6">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="I6">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="J6">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="N6">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="O6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="P6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="Q6">
-        <v>5.972095618291555</v>
+        <v>11.04633215274111</v>
       </c>
       <c r="R6">
-        <v>53.748860564624</v>
+        <v>99.41698937466998</v>
       </c>
       <c r="S6">
-        <v>0.005701110243536113</v>
+        <v>0.008247702287287122</v>
       </c>
       <c r="T6">
-        <v>0.005701110243536114</v>
+        <v>0.00824770228728712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.51249</v>
       </c>
       <c r="I7">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="J7">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="N7">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="O7">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="P7">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="Q7">
-        <v>29.57912608926</v>
+        <v>21.90034175234</v>
       </c>
       <c r="R7">
-        <v>266.21213480334</v>
+        <v>197.10307577106</v>
       </c>
       <c r="S7">
-        <v>0.02823696563494872</v>
+        <v>0.01635180766480231</v>
       </c>
       <c r="T7">
-        <v>0.02823696563494872</v>
+        <v>0.01635180766480231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.51249</v>
       </c>
       <c r="I8">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="J8">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.848049</v>
       </c>
       <c r="O8">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="P8">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="Q8">
         <v>4.95531673689</v>
@@ -948,10 +948,10 @@
         <v>44.59785063200999</v>
       </c>
       <c r="S8">
-        <v>0.004730467965402615</v>
+        <v>0.003699868573564309</v>
       </c>
       <c r="T8">
-        <v>0.004730467965402615</v>
+        <v>0.003699868573564307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.51249</v>
       </c>
       <c r="I9">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="J9">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="N9">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="O9">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="P9">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="Q9">
-        <v>14.23064378619</v>
+        <v>32.36477711464</v>
       </c>
       <c r="R9">
-        <v>128.07579407571</v>
+        <v>291.28299403176</v>
       </c>
       <c r="S9">
-        <v>0.01358492466414502</v>
+        <v>0.02416503890567107</v>
       </c>
       <c r="T9">
-        <v>0.01358492466414502</v>
+        <v>0.02416503890567107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>6.51249</v>
       </c>
       <c r="I10">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="J10">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05428633333333333</v>
+        <v>0.2836386666666667</v>
       </c>
       <c r="N10">
-        <v>0.162859</v>
+        <v>0.850916</v>
       </c>
       <c r="O10">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="P10">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="Q10">
-        <v>0.11784640099</v>
+        <v>0.61573132676</v>
       </c>
       <c r="R10">
-        <v>1.06061760891</v>
+        <v>5.54158194084</v>
       </c>
       <c r="S10">
-        <v>0.0001124990902339491</v>
+        <v>0.0004597334754968966</v>
       </c>
       <c r="T10">
-        <v>0.0001124990902339491</v>
+        <v>0.0004597334754968965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.51249</v>
       </c>
       <c r="I11">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="J11">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="N11">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="O11">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="P11">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="Q11">
-        <v>19.08993023998</v>
+        <v>24.48766502531</v>
       </c>
       <c r="R11">
-        <v>171.80937215982</v>
+        <v>220.38898522779</v>
       </c>
       <c r="S11">
-        <v>0.01822371974524313</v>
+        <v>0.01828362283941034</v>
       </c>
       <c r="T11">
-        <v>0.01822371974524313</v>
+        <v>0.01828362283941034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="H12">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="I12">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="J12">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="N12">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="O12">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="P12">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="Q12">
-        <v>156.468948354422</v>
+        <v>191.4888653609893</v>
       </c>
       <c r="R12">
-        <v>1408.220535189798</v>
+        <v>1723.399788248904</v>
       </c>
       <c r="S12">
-        <v>0.1493691295776519</v>
+        <v>0.1429744399308089</v>
       </c>
       <c r="T12">
-        <v>0.1493691295776519</v>
+        <v>0.1429744399308089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="H13">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="I13">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="J13">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.848049</v>
       </c>
       <c r="O13">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="P13">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="Q13">
-        <v>26.212850110733</v>
+        <v>43.32754210787599</v>
       </c>
       <c r="R13">
-        <v>235.915650996597</v>
+        <v>389.9478789708839</v>
       </c>
       <c r="S13">
-        <v>0.02502343529478314</v>
+        <v>0.03235034608813406</v>
       </c>
       <c r="T13">
-        <v>0.02502343529478315</v>
+        <v>0.03235034608813406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="H14">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="I14">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="J14">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="N14">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="O14">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="P14">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="Q14">
-        <v>75.277878761943</v>
+        <v>282.9861979976426</v>
       </c>
       <c r="R14">
-        <v>677.500908857487</v>
+        <v>2546.875781978784</v>
       </c>
       <c r="S14">
-        <v>0.07186212565098804</v>
+        <v>0.2112905786484677</v>
       </c>
       <c r="T14">
-        <v>0.07186212565098805</v>
+        <v>0.2112905786484677</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="H15">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="I15">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="J15">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.05428633333333333</v>
+        <v>0.2836386666666667</v>
       </c>
       <c r="N15">
-        <v>0.162859</v>
+        <v>0.850916</v>
       </c>
       <c r="O15">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="P15">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="Q15">
-        <v>0.6233890201696667</v>
+        <v>5.383737590117333</v>
       </c>
       <c r="R15">
-        <v>5.610501181527001</v>
+        <v>48.453638311056</v>
       </c>
       <c r="S15">
-        <v>0.0005951025830383351</v>
+        <v>0.004019747389647867</v>
       </c>
       <c r="T15">
-        <v>0.0005951025830383352</v>
+        <v>0.004019747389647867</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="H16">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="I16">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="J16">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="N16">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="O16">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="P16">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="Q16">
-        <v>100.9827437022727</v>
+        <v>214.1115076679373</v>
       </c>
       <c r="R16">
-        <v>908.8446933204541</v>
+        <v>1927.003569011436</v>
       </c>
       <c r="S16">
-        <v>0.09640062573313316</v>
+        <v>0.1598655505836054</v>
       </c>
       <c r="T16">
-        <v>0.09640062573313317</v>
+        <v>0.1598655505836054</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="H17">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="I17">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="J17">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="N17">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="O17">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="P17">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="Q17">
-        <v>11.59928645653067</v>
+        <v>9.523910821098445</v>
       </c>
       <c r="R17">
-        <v>104.393578108776</v>
+        <v>85.715197389886</v>
       </c>
       <c r="S17">
-        <v>0.01107296585012721</v>
+        <v>0.007110992135394028</v>
       </c>
       <c r="T17">
-        <v>0.01107296585012721</v>
+        <v>0.007110992135394027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="H18">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="I18">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="J18">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.848049</v>
       </c>
       <c r="O18">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="P18">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="Q18">
-        <v>1.943199340662667</v>
+        <v>2.154943298425667</v>
       </c>
       <c r="R18">
-        <v>17.488794065964</v>
+        <v>19.394489685831</v>
       </c>
       <c r="S18">
-        <v>0.001855026170772155</v>
+        <v>0.001608980295508228</v>
       </c>
       <c r="T18">
-        <v>0.001855026170772156</v>
+        <v>0.001608980295508227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="H19">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="I19">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="J19">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="N19">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="O19">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="P19">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="Q19">
-        <v>5.580466212516001</v>
+        <v>14.07463200667289</v>
       </c>
       <c r="R19">
-        <v>50.22419591264401</v>
+        <v>126.671688060056</v>
       </c>
       <c r="S19">
-        <v>0.005327251122778149</v>
+        <v>0.01050877096479077</v>
       </c>
       <c r="T19">
-        <v>0.005327251122778149</v>
+        <v>0.01050877096479077</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="H20">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="I20">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="J20">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.05428633333333333</v>
+        <v>0.2836386666666667</v>
       </c>
       <c r="N20">
-        <v>0.162859</v>
+        <v>0.850916</v>
       </c>
       <c r="O20">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="P20">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="Q20">
-        <v>0.04621279745822223</v>
+        <v>0.2677661523337778</v>
       </c>
       <c r="R20">
-        <v>0.4159151771240001</v>
+        <v>2.409895371004</v>
       </c>
       <c r="S20">
-        <v>4.411587988721788E-05</v>
+        <v>0.0001999265888916214</v>
       </c>
       <c r="T20">
-        <v>4.411587988721788E-05</v>
+        <v>0.0001999265888916213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="H21">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="I21">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="J21">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="N21">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="O21">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="P21">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="Q21">
-        <v>7.48600782256089</v>
+        <v>10.64907299417211</v>
       </c>
       <c r="R21">
-        <v>67.37407040304801</v>
+        <v>95.841656947549</v>
       </c>
       <c r="S21">
-        <v>0.007146328292145207</v>
+        <v>0.007951090233125574</v>
       </c>
       <c r="T21">
-        <v>0.007146328292145208</v>
+        <v>0.007951090233125572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="H22">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="I22">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="J22">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="N22">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="O22">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="P22">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="Q22">
-        <v>248.9439893402074</v>
+        <v>115.0526174188089</v>
       </c>
       <c r="R22">
-        <v>2240.495904061866</v>
+        <v>1035.47355676928</v>
       </c>
       <c r="S22">
-        <v>0.2376480917933142</v>
+        <v>0.08590360336104949</v>
       </c>
       <c r="T22">
-        <v>0.2376480917933142</v>
+        <v>0.08590360336104948</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="H23">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="I23">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="J23">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.848049</v>
       </c>
       <c r="O23">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="P23">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="Q23">
-        <v>41.70496157334433</v>
+        <v>26.03256913365334</v>
       </c>
       <c r="R23">
-        <v>375.344654160099</v>
+        <v>234.29312220288</v>
       </c>
       <c r="S23">
-        <v>0.0398125882150713</v>
+        <v>0.01943711967182821</v>
       </c>
       <c r="T23">
-        <v>0.03981258821507131</v>
+        <v>0.01943711967182821</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="H24">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="I24">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="J24">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="N24">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="O24">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="P24">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="Q24">
-        <v>119.768015604081</v>
+        <v>170.0271329700978</v>
       </c>
       <c r="R24">
-        <v>1077.912140436729</v>
+        <v>1530.24419673088</v>
       </c>
       <c r="S24">
-        <v>0.1143335110906599</v>
+        <v>0.1269501182933706</v>
       </c>
       <c r="T24">
-        <v>0.11433351109066</v>
+        <v>0.1269501182933706</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="H25">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="I25">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="J25">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05428633333333333</v>
+        <v>0.2836386666666667</v>
       </c>
       <c r="N25">
-        <v>0.162859</v>
+        <v>0.850916</v>
       </c>
       <c r="O25">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="P25">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="Q25">
-        <v>0.9918194710454444</v>
+        <v>3.234721246435555</v>
       </c>
       <c r="R25">
-        <v>8.926375239408999</v>
+        <v>29.11249121792</v>
       </c>
       <c r="S25">
-        <v>0.0009468154074420755</v>
+        <v>0.002415192432570704</v>
       </c>
       <c r="T25">
-        <v>0.0009468154074420757</v>
+        <v>0.002415192432570704</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="H26">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="I26">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="J26">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="N26">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="O26">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="P26">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="Q26">
-        <v>160.6647666271798</v>
+        <v>128.6450224155022</v>
       </c>
       <c r="R26">
-        <v>1445.982899644618</v>
+        <v>1157.80520173952</v>
       </c>
       <c r="S26">
-        <v>0.1533745615170819</v>
+        <v>0.09605232134552018</v>
       </c>
       <c r="T26">
-        <v>0.153374561517082</v>
+        <v>0.09605232134552016</v>
       </c>
     </row>
   </sheetData>
